--- a/resources/reports/user_behaviour_limit_5.xlsx
+++ b/resources/reports/user_behaviour_limit_5.xlsx
@@ -18,6 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">user_behaviour_limit_5!$A$1:$AU$331</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -6072,18 +6073,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AU331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="89" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6230,7 +6230,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>141</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>153</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>159</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>163</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>170</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>174</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>179</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>184</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>189</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>196</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>202</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>207</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>211</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>216</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>223</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>229</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>234</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>238</v>
       </c>
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>245</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>250</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>255</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>259</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>288</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>295</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>300</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>304</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>310</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>315</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>320</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>340</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>346</v>
       </c>
@@ -13982,7 +13982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>350</v>
       </c>
@@ -14119,7 +14119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>355</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>361</v>
       </c>
@@ -14396,7 +14396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>367</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>373</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>377</v>
       </c>
@@ -14807,7 +14807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>384</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>390</v>
       </c>
@@ -15075,7 +15075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>395</v>
       </c>
@@ -15209,7 +15209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>400</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>404</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>409</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>416</v>
       </c>
@@ -15739,7 +15739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>422</v>
       </c>
@@ -15870,7 +15870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>426</v>
       </c>
@@ -16004,7 +16004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>433</v>
       </c>
@@ -16138,7 +16138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>439</v>
       </c>
@@ -16269,7 +16269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>444</v>
       </c>
@@ -16400,7 +16400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>448</v>
       </c>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>454</v>
       </c>
@@ -16662,7 +16662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>459</v>
       </c>
@@ -16796,7 +16796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>464</v>
       </c>
@@ -16927,7 +16927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>469</v>
       </c>
@@ -17058,7 +17058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>475</v>
       </c>
@@ -17192,7 +17192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>481</v>
       </c>
@@ -17323,7 +17323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>485</v>
       </c>
@@ -17457,7 +17457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>490</v>
       </c>
@@ -17591,7 +17591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>496</v>
       </c>
@@ -17722,7 +17722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>502</v>
       </c>
@@ -17856,7 +17856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>507</v>
       </c>
@@ -17987,7 +17987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>511</v>
       </c>
@@ -18118,7 +18118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>517</v>
       </c>
@@ -18252,7 +18252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>523</v>
       </c>
@@ -18386,7 +18386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>528</v>
       </c>
@@ -18517,7 +18517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>532</v>
       </c>
@@ -19196,7 +19196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>556</v>
       </c>
@@ -19327,7 +19327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>562</v>
       </c>
@@ -19458,7 +19458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>567</v>
       </c>
@@ -19589,7 +19589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>572</v>
       </c>
@@ -19720,7 +19720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>576</v>
       </c>
@@ -19854,7 +19854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>581</v>
       </c>
@@ -19988,7 +19988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>588</v>
       </c>
@@ -20119,7 +20119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>593</v>
       </c>
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>599</v>
       </c>
@@ -20387,7 +20387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>606</v>
       </c>
@@ -20521,7 +20521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>611</v>
       </c>
@@ -20655,7 +20655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>617</v>
       </c>
@@ -20792,7 +20792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>623</v>
       </c>
@@ -20932,7 +20932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>629</v>
       </c>
@@ -21069,7 +21069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>634</v>
       </c>
@@ -21209,7 +21209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>639</v>
       </c>
@@ -21343,7 +21343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>646</v>
       </c>
@@ -21474,7 +21474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>651</v>
       </c>
@@ -21605,7 +21605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>656</v>
       </c>
@@ -21739,7 +21739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>661</v>
       </c>
@@ -21870,7 +21870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>665</v>
       </c>
@@ -22004,7 +22004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>671</v>
       </c>
@@ -22135,7 +22135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>676</v>
       </c>
@@ -22266,7 +22266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>680</v>
       </c>
@@ -22397,7 +22397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>685</v>
       </c>
@@ -22528,7 +22528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>689</v>
       </c>
@@ -22659,7 +22659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>695</v>
       </c>
@@ -22793,7 +22793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>701</v>
       </c>
@@ -22924,7 +22924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>706</v>
       </c>
@@ -23055,7 +23055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>710</v>
       </c>
@@ -23186,7 +23186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>714</v>
       </c>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>721</v>
       </c>
@@ -23451,7 +23451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>726</v>
       </c>
@@ -23582,7 +23582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>731</v>
       </c>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>736</v>
       </c>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>743</v>
       </c>
@@ -23993,7 +23993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>748</v>
       </c>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>752</v>
       </c>
@@ -24955,7 +24955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>781</v>
       </c>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>787</v>
       </c>
@@ -25217,7 +25217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>791</v>
       </c>
@@ -25351,7 +25351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>797</v>
       </c>
@@ -25482,7 +25482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>801</v>
       </c>
@@ -25613,7 +25613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>806</v>
       </c>
@@ -25744,7 +25744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>812</v>
       </c>
@@ -25878,7 +25878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>818</v>
       </c>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>823</v>
       </c>
@@ -26143,7 +26143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>827</v>
       </c>
@@ -26274,7 +26274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>831</v>
       </c>
@@ -26408,7 +26408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>838</v>
       </c>
@@ -26539,7 +26539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>843</v>
       </c>
@@ -26673,7 +26673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>849</v>
       </c>
@@ -26804,7 +26804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>853</v>
       </c>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>858</v>
       </c>
@@ -27069,7 +27069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>864</v>
       </c>
@@ -27200,7 +27200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>869</v>
       </c>
@@ -27334,7 +27334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>875</v>
       </c>
@@ -27465,7 +27465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>879</v>
       </c>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>883</v>
       </c>
@@ -27733,7 +27733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>889</v>
       </c>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>894</v>
       </c>
@@ -28010,7 +28010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>900</v>
       </c>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>904</v>
       </c>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>910</v>
       </c>
@@ -28409,7 +28409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>915</v>
       </c>
@@ -28540,7 +28540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>920</v>
       </c>
@@ -28671,7 +28671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>924</v>
       </c>
@@ -28802,7 +28802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>928</v>
       </c>
@@ -28939,7 +28939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>934</v>
       </c>
@@ -29076,7 +29076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>938</v>
       </c>
@@ -29213,7 +29213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>943</v>
       </c>
@@ -29353,7 +29353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>949</v>
       </c>
@@ -29487,7 +29487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>956</v>
       </c>
@@ -29621,7 +29621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>961</v>
       </c>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>966</v>
       </c>
@@ -29889,7 +29889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>972</v>
       </c>
@@ -30026,7 +30026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>977</v>
       </c>
@@ -30166,7 +30166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>981</v>
       </c>
@@ -30306,7 +30306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>987</v>
       </c>
@@ -30446,7 +30446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>992</v>
       </c>
@@ -30577,7 +30577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>998</v>
       </c>
@@ -30711,7 +30711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1004</v>
       </c>
@@ -30845,7 +30845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1010</v>
       </c>
@@ -30976,7 +30976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1014</v>
       </c>
@@ -31107,7 +31107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1018</v>
       </c>
@@ -31244,7 +31244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1024</v>
       </c>
@@ -31381,7 +31381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1029</v>
       </c>
@@ -31521,7 +31521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1034</v>
       </c>
@@ -33040,7 +33040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1088</v>
       </c>
@@ -33177,7 +33177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1094</v>
       </c>
@@ -33317,7 +33317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1099</v>
       </c>
@@ -33457,7 +33457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1105</v>
       </c>
@@ -33597,7 +33597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1111</v>
       </c>
@@ -33734,7 +33734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1115</v>
       </c>
@@ -33868,7 +33868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1122</v>
       </c>
@@ -33999,7 +33999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1127</v>
       </c>
@@ -34133,7 +34133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1131</v>
       </c>
@@ -34267,7 +34267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1135</v>
       </c>
@@ -34401,7 +34401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1140</v>
       </c>
@@ -34541,7 +34541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1147</v>
       </c>
@@ -34681,7 +34681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1153</v>
       </c>
@@ -34818,7 +34818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1157</v>
       </c>
@@ -34958,7 +34958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1162</v>
       </c>
@@ -35098,7 +35098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1167</v>
       </c>
@@ -35229,7 +35229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1173</v>
       </c>
@@ -35360,7 +35360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1178</v>
       </c>
@@ -35494,7 +35494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1182</v>
       </c>
@@ -35625,7 +35625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1186</v>
       </c>
@@ -35756,7 +35756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1191</v>
       </c>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1197</v>
       </c>
@@ -36018,7 +36018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1202</v>
       </c>
@@ -36149,7 +36149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1206</v>
       </c>
@@ -36283,7 +36283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1212</v>
       </c>
@@ -36417,7 +36417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1216</v>
       </c>
@@ -36551,7 +36551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1223</v>
       </c>
@@ -36682,7 +36682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1228</v>
       </c>
@@ -36816,7 +36816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1233</v>
       </c>
@@ -36947,7 +36947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1238</v>
       </c>
@@ -37495,7 +37495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1259</v>
       </c>
@@ -37635,7 +37635,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="235" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1266</v>
       </c>
@@ -37775,7 +37775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1272</v>
       </c>
@@ -37915,7 +37915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1276</v>
       </c>
@@ -38055,7 +38055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1281</v>
       </c>
@@ -38192,7 +38192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1286</v>
       </c>
@@ -38323,7 +38323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1292</v>
       </c>
@@ -38457,7 +38457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1298</v>
       </c>
@@ -38588,7 +38588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1302</v>
       </c>
@@ -38722,7 +38722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1308</v>
       </c>
@@ -38856,7 +38856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1313</v>
       </c>
@@ -38987,7 +38987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1317</v>
       </c>
@@ -39121,7 +39121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1322</v>
       </c>
@@ -39252,7 +39252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1326</v>
       </c>
@@ -39386,7 +39386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1332</v>
       </c>
@@ -39520,7 +39520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1337</v>
       </c>
@@ -39654,7 +39654,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="250" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1343</v>
       </c>
@@ -39785,7 +39785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1347</v>
       </c>
@@ -39916,7 +39916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1351</v>
       </c>
@@ -40047,7 +40047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1356</v>
       </c>
@@ -40178,7 +40178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1361</v>
       </c>
@@ -40309,7 +40309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1365</v>
       </c>
@@ -40440,7 +40440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1369</v>
       </c>
@@ -40571,7 +40571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1374</v>
       </c>
@@ -40702,7 +40702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1379</v>
       </c>
@@ -40833,7 +40833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1384</v>
       </c>
@@ -40964,7 +40964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1388</v>
       </c>
@@ -41095,7 +41095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1392</v>
       </c>
@@ -41229,7 +41229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1396</v>
       </c>
@@ -41360,7 +41360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1401</v>
       </c>
@@ -41491,7 +41491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1406</v>
       </c>
@@ -41622,7 +41622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1410</v>
       </c>
@@ -41756,7 +41756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1415</v>
       </c>
@@ -41887,7 +41887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1420</v>
       </c>
@@ -42018,7 +42018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1425</v>
       </c>
@@ -42152,7 +42152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1429</v>
       </c>
@@ -42286,7 +42286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1434</v>
       </c>
@@ -42420,7 +42420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1440</v>
       </c>
@@ -42551,7 +42551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1444</v>
       </c>
@@ -42685,7 +42685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1450</v>
       </c>
@@ -42819,7 +42819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1456</v>
       </c>
@@ -42953,7 +42953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1462</v>
       </c>
@@ -43084,7 +43084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1466</v>
       </c>
@@ -43215,7 +43215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1470</v>
       </c>
@@ -43346,7 +43346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1475</v>
       </c>
@@ -43480,7 +43480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1480</v>
       </c>
@@ -43611,7 +43611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1485</v>
       </c>
@@ -43742,7 +43742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1489</v>
       </c>
@@ -43873,7 +43873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1494</v>
       </c>
@@ -44007,7 +44007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1500</v>
       </c>
@@ -44138,7 +44138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1505</v>
       </c>
@@ -44269,7 +44269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1509</v>
       </c>
@@ -44400,7 +44400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1513</v>
       </c>
@@ -44540,7 +44540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1519</v>
       </c>
@@ -44680,7 +44680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1524</v>
       </c>
@@ -44820,7 +44820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1530</v>
       </c>
@@ -44957,7 +44957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1534</v>
       </c>
@@ -45097,7 +45097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1539</v>
       </c>
@@ -45228,7 +45228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1544</v>
       </c>
@@ -45359,7 +45359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1549</v>
       </c>
@@ -45493,7 +45493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1555</v>
       </c>
@@ -45627,7 +45627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1559</v>
       </c>
@@ -45761,7 +45761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1564</v>
       </c>
@@ -45898,7 +45898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1569</v>
       </c>
@@ -46035,7 +46035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1574</v>
       </c>
@@ -46175,7 +46175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1578</v>
       </c>
@@ -46315,7 +46315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1583</v>
       </c>
@@ -46452,7 +46452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1587</v>
       </c>
@@ -46589,7 +46589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1592</v>
       </c>
@@ -46726,7 +46726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1596</v>
       </c>
@@ -46866,7 +46866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1602</v>
       </c>
@@ -47006,7 +47006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1607</v>
       </c>
@@ -47137,7 +47137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1612</v>
       </c>
@@ -47271,7 +47271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1617</v>
       </c>
@@ -47402,7 +47402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1622</v>
       </c>
@@ -47533,7 +47533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1627</v>
       </c>
@@ -47667,7 +47667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1632</v>
       </c>
@@ -47798,7 +47798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1636</v>
       </c>
@@ -47932,7 +47932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1642</v>
       </c>
@@ -48063,7 +48063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1647</v>
       </c>
@@ -48194,7 +48194,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="314" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1652</v>
       </c>
@@ -48325,7 +48325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1657</v>
       </c>
@@ -48456,7 +48456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1662</v>
       </c>
@@ -48587,7 +48587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1667</v>
       </c>
@@ -48718,7 +48718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1672</v>
       </c>
@@ -48849,7 +48849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1676</v>
       </c>
@@ -48980,7 +48980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1680</v>
       </c>
@@ -49114,7 +49114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1686</v>
       </c>
@@ -49248,7 +49248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1692</v>
       </c>
@@ -49388,7 +49388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1698</v>
       </c>
@@ -49525,7 +49525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1703</v>
       </c>
@@ -49665,7 +49665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1709</v>
       </c>
@@ -49805,7 +49805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1713</v>
       </c>
@@ -49942,7 +49942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1717</v>
       </c>
@@ -50073,7 +50073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1722</v>
       </c>
@@ -50207,7 +50207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1728</v>
       </c>
@@ -50341,7 +50341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1733</v>
       </c>
@@ -50472,7 +50472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1737</v>
       </c>
@@ -50607,20 +50607,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AU331">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="SNMYNMY"/>
-        <filter val="SNMYNMYNMY"/>
-        <filter val="SNNMMYY"/>
-        <filter val="SNNNMMMYYY"/>
-        <filter val="SNNNYYYMMM"/>
-        <filter val="SNNYYMM"/>
-        <filter val="SNYMNYM"/>
-        <filter val="SNYMNYMNYM"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AU331"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>